--- a/Lab 1.3/Requirements Source Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Source Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/20520994_ms_uit_edu_vn/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49de434ea4f7613f/Documents/GitHub/SE357-Pratice-class/Lab 1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{2B2BBCA0-4BAE-438B-8E08-A3E25E768A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73FA329F-1F0B-47B4-A89A-FB695D27A1DF}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{2B2BBCA0-4BAE-438B-8E08-A3E25E768A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4424B66-EF37-43D0-91E2-A3B41933C532}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{5CC138E0-9CCB-4007-BAFA-D8EAD9C9023A}"/>
+    <workbookView minimized="1" xWindow="10665" yWindow="1785" windowWidth="16965" windowHeight="13800" xr2:uid="{5CC138E0-9CCB-4007-BAFA-D8EAD9C9023A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t xml:space="preserve">Requirement ID </t>
   </si>
@@ -129,13 +129,88 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>REQ-1</t>
+  </si>
+  <si>
+    <t>REQ-2</t>
+  </si>
+  <si>
+    <t>REQ-3</t>
+  </si>
+  <si>
+    <t>REQ-4</t>
+  </si>
+  <si>
+    <t>REQ-5</t>
+  </si>
+  <si>
+    <t>REQ-6</t>
+  </si>
+  <si>
+    <t>REQ-7</t>
+  </si>
+  <si>
+    <t>REQ-8</t>
+  </si>
+  <si>
+    <t>REQ-9</t>
+  </si>
+  <si>
+    <t>REQ-10</t>
+  </si>
+  <si>
+    <t>REQ-11</t>
+  </si>
+  <si>
+    <t>REQ-12</t>
+  </si>
+  <si>
+    <t>REQ-13</t>
+  </si>
+  <si>
+    <t>REQ-14</t>
+  </si>
+  <si>
+    <t>REQ-15</t>
+  </si>
+  <si>
+    <t>REQ-16</t>
+  </si>
+  <si>
+    <t>REQ-17</t>
+  </si>
+  <si>
+    <t>REQ-18</t>
+  </si>
+  <si>
+    <t>REQ-19</t>
+  </si>
+  <si>
+    <t>REQ-20</t>
+  </si>
+  <si>
+    <t>REQ-21</t>
+  </si>
+  <si>
+    <t>REQ-22</t>
+  </si>
+  <si>
+    <t>REQ-23</t>
+  </si>
+  <si>
+    <t>REQ-24</t>
+  </si>
+  <si>
+    <t>REQ-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +239,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,24 +271,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C4E05345-9569-4DE1-927F-A5131B4A71E5}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,8 +407,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53281A3E-BDC6-4E72-8A57-19D3FEAE2970}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E26" xr:uid="{53281A3E-BDC6-4E72-8A57-19D3FEAE2970}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3DB8AD79-D34A-4CC5-9FAB-B725321C6729}" name="Requirement ID " dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4EC51DF7-7C37-4B8B-89FF-94056AEFE40D}" name="Requirement" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{01CA6AC6-7EDA-49E7-8F2A-83D51C8A22F1}" name="1. User Interview" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2D4B2D8C-0288-4EA1-BF83-1B68E3096E0C}" name="2. Analysis Document" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0BE1150A-F394-4AE5-B2A4-B9DBC5C5A6A7}" name="3. Business Requirement" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,16 +721,16 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,306 +741,371 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x0101006DE8A98539B4144A97A705AB0C1AF624" ma:contentTypeVersion="2" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="5fcf6f5134e04b98c83161921e3fae56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5edaca9-2ffd-4286-950f-2a4d8a80ee42" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c830c920b751f335d31154b21d46331" ns3:_="">
     <xsd:import namespace="c5edaca9-2ffd-4286-950f-2a4d8a80ee42"/>
@@ -967,22 +1237,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25D6034-57EC-4260-B334-C7855F23A002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5edaca9-2ffd-4286-950f-2a4d8a80ee42"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21932F5D-C0B0-4029-95B9-6FB034B6C059}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D40C03C5-193F-45AE-8BEC-897B16A40D2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -998,28 +1277,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21932F5D-C0B0-4029-95B9-6FB034B6C059}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25D6034-57EC-4260-B334-C7855F23A002}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5edaca9-2ffd-4286-950f-2a4d8a80ee42"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>